--- a/biology/Zoologie/Cebus/Cebus.xlsx
+++ b/biology/Zoologie/Cebus/Cebus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cebus est un genre de singes du Nouveau Monde de la famille des Cebidae.
 </t>
@@ -511,11 +523,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Historiquement, Cebus incluaient tous les sapajous. Des études phylogénétiques récentes ont démontré que les espèces du groupe de Cebus apella s'étaient séparées de celles du groupe de Cebus capucinus au Miocène déjà. Elles ont donc été replacées dans un genre à part, Sapajus[1],[2].
-Liste des espèces
-Selon ITIS      (20 septembre 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, Cebus incluaient tous les sapajous. Des études phylogénétiques récentes ont démontré que les espèces du groupe de Cebus apella s'étaient séparées de celles du groupe de Cebus capucinus au Miocène déjà. Elles ont donc été replacées dans un genre à part, Sapajus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cebus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cebus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (20 septembre 2019) :
 Cebus aequatorialis J. A. Allen, 1914
 Cebus albifrons (Humboldt, 1812)
 Cebus brunneus Allen, 1914
